--- a/web/PirateCardsLayaGame/design/Config/Common/ItemWeapon.xlsx
+++ b/web/PirateCardsLayaGame/design/Config/Common/ItemWeapon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zengfeng\githubs\ihaiu.blog\web\PirateCardsLayaGame\design\Config\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349F1B26-9F4E-4CCC-800F-CC16AB00CCA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCCB153-8661-4CE9-8351-6377F2602898}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="68">
   <si>
     <t>int</t>
   </si>
@@ -64,10 +64,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>zh_cn_itemDes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -76,10 +72,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>float[]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>效果参数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -120,10 +112,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>小木剑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>铁剑</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -246,13 +234,77 @@
   <si>
     <t>AddHP</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>木剑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon_00001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon_00002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon_00003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon_00004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon_00005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon_00006</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon_00007</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon_00008</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon_00009</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon_00010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon_00011</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon_00012</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon_00013</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh_cn_des</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,6 +334,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -396,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -459,6 +519,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -918,19 +979,19 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="93.5546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="93.44140625" style="5" customWidth="1"/>
     <col min="4" max="4" width="17.33203125" style="5" customWidth="1"/>
     <col min="5" max="5" width="29.109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="29.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="14.88671875" style="4" customWidth="1"/>
@@ -957,18 +1018,18 @@
         <v>4</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>2</v>
@@ -980,42 +1041,42 @@
         <v>5</v>
       </c>
       <c r="E2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>17</v>
-      </c>
       <c r="H2" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="17" t="s">
-        <v>16</v>
-      </c>
       <c r="H3" s="19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1034,31 +1095,37 @@
       <c r="E4" s="17">
         <v>3</v>
       </c>
-      <c r="F4" s="18"/>
+      <c r="F4" s="18">
+        <v>3</v>
+      </c>
       <c r="G4" s="17">
         <v>3</v>
       </c>
-      <c r="H4" s="19"/>
+      <c r="H4" s="19">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>1201</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>53</v>
+      </c>
       <c r="E5" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F5" s="20">
         <v>1</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H5" s="20">
         <v>1</v>
@@ -1069,20 +1136,22 @@
         <v>1202</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>54</v>
+      </c>
       <c r="E6" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F6" s="20">
         <v>2</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H6" s="20">
         <v>1</v>
@@ -1093,20 +1162,22 @@
         <v>1203</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>55</v>
+      </c>
       <c r="E7" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F7" s="20">
         <v>3</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H7" s="20">
         <v>1</v>
@@ -1117,20 +1188,22 @@
         <v>1204</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>56</v>
+      </c>
       <c r="E8" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F8" s="20">
         <v>4</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H8" s="20">
         <v>1</v>
@@ -1141,20 +1214,22 @@
         <v>1205</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>57</v>
+      </c>
       <c r="E9" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F9" s="20">
         <v>5</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H9" s="20">
         <v>1</v>
@@ -1165,20 +1240,22 @@
         <v>1206</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>58</v>
+      </c>
       <c r="E10" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F10" s="20">
         <v>6</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H10" s="20">
         <v>1</v>
@@ -1189,20 +1266,22 @@
         <v>1207</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>59</v>
+      </c>
       <c r="E11" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F11" s="20">
         <v>2</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H11" s="20">
         <v>3</v>
@@ -1213,20 +1292,22 @@
         <v>1208</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>60</v>
+      </c>
       <c r="E12" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F12" s="20">
         <v>4</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H12" s="20">
         <v>3</v>
@@ -1237,20 +1318,22 @@
         <v>1209</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>61</v>
+      </c>
       <c r="E13" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F13" s="20">
         <v>5</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H13" s="20">
         <v>3</v>
@@ -1261,20 +1344,22 @@
         <v>1210</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="6"/>
+        <v>41</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>62</v>
+      </c>
       <c r="E14" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F14" s="20">
         <v>7</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H14" s="20">
         <v>3</v>
@@ -1285,20 +1370,22 @@
         <v>1211</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="6"/>
+        <v>42</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>63</v>
+      </c>
       <c r="E15" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F15" s="20">
         <v>1</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H15" s="20">
         <v>1</v>
@@ -1309,20 +1396,22 @@
         <v>1212</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="6"/>
+        <v>43</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>64</v>
+      </c>
       <c r="E16" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F16" s="20">
         <v>1</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H16" s="20">
         <v>3</v>
@@ -1333,20 +1422,22 @@
         <v>1213</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="6"/>
+        <v>44</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>65</v>
+      </c>
       <c r="E17" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F17" s="20">
         <v>3</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H17" s="20">
         <v>2</v>

--- a/web/PirateCardsLayaGame/design/Config/Common/ItemWeapon.xlsx
+++ b/web/PirateCardsLayaGame/design/Config/Common/ItemWeapon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zengfeng\githubs\ihaiu.blog\web\PirateCardsLayaGame\design\Config\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCCB153-8661-4CE9-8351-6377F2602898}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56CCB0CD-7474-420E-AF02-884DC23B06AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -104,10 +104,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>EatCardArmor</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Step</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -297,6 +293,10 @@
   </si>
   <si>
     <t>int[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddDamageExtra</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -979,7 +979,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1018,13 +1018,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1061,7 +1061,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>7</v>
@@ -1110,22 +1110,22 @@
         <v>1201</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>53</v>
-      </c>
       <c r="E5" s="6" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="F5" s="20">
         <v>1</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H5" s="20">
         <v>1</v>
@@ -1136,22 +1136,22 @@
         <v>1202</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" s="20">
         <v>2</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6" s="20">
         <v>1</v>
@@ -1162,22 +1162,22 @@
         <v>1203</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" s="20">
         <v>3</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" s="20">
         <v>1</v>
@@ -1188,22 +1188,22 @@
         <v>1204</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" s="20">
         <v>4</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" s="20">
         <v>1</v>
@@ -1214,22 +1214,22 @@
         <v>1205</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" s="20">
         <v>5</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" s="20">
         <v>1</v>
@@ -1240,22 +1240,22 @@
         <v>1206</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" s="20">
         <v>6</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" s="20">
         <v>1</v>
@@ -1266,22 +1266,22 @@
         <v>1207</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" s="20">
         <v>2</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H11" s="20">
         <v>3</v>
@@ -1292,22 +1292,22 @@
         <v>1208</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F12" s="20">
         <v>4</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H12" s="20">
         <v>3</v>
@@ -1318,16 +1318,16 @@
         <v>1209</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13" s="20">
         <v>5</v>
@@ -1344,16 +1344,16 @@
         <v>1210</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F14" s="20">
         <v>7</v>
@@ -1370,25 +1370,25 @@
         <v>1211</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F15" s="20">
         <v>1</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H15" s="20">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1396,22 +1396,22 @@
         <v>1212</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F16" s="20">
         <v>1</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" s="20">
         <v>3</v>
@@ -1422,22 +1422,22 @@
         <v>1213</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F17" s="20">
         <v>3</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" s="20">
         <v>2</v>

--- a/web/PirateCardsLayaGame/design/Config/Common/ItemWeapon.xlsx
+++ b/web/PirateCardsLayaGame/design/Config/Common/ItemWeapon.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zengfeng\githubs\ihaiu.blog\web\PirateCardsLayaGame\design\Config\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\zengfeng\githubs\ihaiu.blog\web\PirateCardsLayaGame\design\Config\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56CCB0CD-7474-420E-AF02-884DC23B06AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D540887F-0D9D-4354-B0C1-75F9CA615C2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,6 +64,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>zh_cn_itemDes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -104,6 +108,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>EatCardArmor</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>Step</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -180,34 +188,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>每3步触发一次攻击力+2的弓箭攻击，随机攻击场面一个怪物，没有怪物不发射。且从新计算步数。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>每3步触发一次攻击力+4的弓箭攻击，随机攻击场面一个怪物，没有怪物不发射。且从新计算步数。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>吃3次盾牌 获得一个+5伤害的闪电链</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>吃3次盾牌 获得一个+7伤害的闪电链</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>每次移动对周围道具和敌人进行一次+1攻击</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>击杀3个怪物获得+1生命</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>击杀2个怪物获得+3生命</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>AddDamageExtra</t>
   </si>
   <si>
@@ -288,15 +272,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>zh_cn_des</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>吃5次盾牌 获得一个+3伤害的闪电链</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每5步触发一次攻击力+1的弓箭攻击，随机攻击场面一个怪物，没有怪物不发射。且从新计算步数。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每6步触发一次攻击力+2的弓箭攻击，随机攻击场面一个怪物，没有怪物不发射。且从新计算步数。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃10次盾牌 获得一个+4伤害的闪电链</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀5个怪物获得+1生命</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀10个怪物获得+2生命</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>int[]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddDamageExtra</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -979,29 +979,29 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="93.44140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="29.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="29.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.44140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.109375" style="4" customWidth="1"/>
-    <col min="14" max="17" width="12.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="93.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="29.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="12.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.125" style="4" customWidth="1"/>
+    <col min="14" max="17" width="12.125" style="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1018,18 +1018,18 @@
         <v>4</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>2</v>
@@ -1041,45 +1041,45 @@
         <v>5</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -1105,342 +1105,342 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="20">
         <v>1201</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="F5" s="20">
         <v>1</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H5" s="20">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="20">
         <v>1202</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F6" s="20">
         <v>2</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H6" s="20">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="20">
         <v>1203</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F7" s="20">
         <v>3</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H7" s="20">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="20">
         <v>1204</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F8" s="20">
         <v>4</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H8" s="20">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="20">
         <v>1205</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F9" s="20">
         <v>5</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H9" s="20">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="20">
         <v>1206</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F10" s="20">
         <v>6</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H10" s="20">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="20">
         <v>1207</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F11" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H11" s="20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="20">
         <v>1208</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F12" s="20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H12" s="20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="20">
         <v>1209</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F13" s="20">
+        <v>3</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="20">
         <v>5</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="20">
         <v>1210</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F14" s="20">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H14" s="20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="20">
         <v>1211</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F15" s="20">
         <v>1</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H15" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="20">
         <v>1212</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F16" s="20">
         <v>1</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H16" s="20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="20">
         <v>1213</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F17" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H17" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
